--- a/APM466_A1_data.xlsx
+++ b/APM466_A1_data.xlsx
@@ -61,22 +61,22 @@
     <t>date_10_price</t>
   </si>
   <si>
-    <t>CAN 0.5 Mar 22</t>
-  </si>
-  <si>
-    <t>2016-10-10</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>CAN 0.25 Aug 22</t>
-  </si>
-  <si>
-    <t>2020-11-04</t>
-  </si>
-  <si>
-    <t>2022-08-01</t>
+    <t>CAN 1.5 May 22</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>CAN 0.25 Nov 22</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
   </si>
   <si>
     <t>CAN 0.25 May 23</t>
@@ -97,22 +97,22 @@
     <t>2023-11-01</t>
   </si>
   <si>
-    <t>CAN 0.25 Apr 24</t>
-  </si>
-  <si>
-    <t>2020-10-16</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>CAN 0.75 Oct 24</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
+    <t>CAN 2.25 March 24</t>
+  </si>
+  <si>
+    <t>2018-10-04</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>CAN 1.5 Sept 24</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
   </si>
   <si>
     <t>CAN 1.25 Mar 25</t>
@@ -553,40 +553,40 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>100.04</v>
+        <v>100.35</v>
       </c>
       <c r="G2">
-        <v>100.03</v>
+        <v>100.34</v>
       </c>
       <c r="H2">
-        <v>100.03</v>
+        <v>100.34</v>
       </c>
       <c r="I2">
-        <v>100.03</v>
+        <v>100.32</v>
       </c>
       <c r="J2">
-        <v>100.02</v>
+        <v>100.31</v>
       </c>
       <c r="K2">
-        <v>100.02</v>
+        <v>100.28</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>100.27</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>100.27</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>100.26</v>
       </c>
       <c r="O2">
-        <v>100.01</v>
+        <v>100.27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -606,34 +606,34 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>99.8</v>
+        <v>99.55</v>
       </c>
       <c r="G3">
-        <v>99.79</v>
+        <v>99.54</v>
       </c>
       <c r="H3">
-        <v>99.78</v>
+        <v>99.52</v>
       </c>
       <c r="I3">
-        <v>99.77</v>
+        <v>99.52</v>
       </c>
       <c r="J3">
-        <v>99.76</v>
+        <v>99.5</v>
       </c>
       <c r="K3">
-        <v>99.72</v>
+        <v>99.43</v>
       </c>
       <c r="L3">
-        <v>99.7</v>
+        <v>99.4</v>
       </c>
       <c r="M3">
-        <v>99.7</v>
+        <v>99.42</v>
       </c>
       <c r="N3">
-        <v>99.72</v>
+        <v>99.43</v>
       </c>
       <c r="O3">
-        <v>99.74</v>
+        <v>99.46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -741,40 +741,40 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>0.0025</v>
+        <v>0.0225</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6">
-        <v>97.96</v>
+        <v>102.31</v>
       </c>
       <c r="G6">
-        <v>97.96</v>
+        <v>102.31</v>
       </c>
       <c r="H6">
-        <v>97.93</v>
+        <v>102.26</v>
       </c>
       <c r="I6">
-        <v>97.9</v>
+        <v>102.22</v>
       </c>
       <c r="J6">
-        <v>97.86</v>
+        <v>102.18</v>
       </c>
       <c r="K6">
-        <v>97.68</v>
+        <v>101.99</v>
       </c>
       <c r="L6">
-        <v>97.61</v>
+        <v>101.91</v>
       </c>
       <c r="M6">
-        <v>97.6</v>
+        <v>101.9</v>
       </c>
       <c r="N6">
-        <v>97.6</v>
+        <v>101.88</v>
       </c>
       <c r="O6">
-        <v>97.71</v>
+        <v>101.97</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -788,40 +788,40 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0.0075</v>
+        <v>0.015</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
       <c r="F7">
-        <v>98.555</v>
+        <v>100.56</v>
       </c>
       <c r="G7">
-        <v>98.56</v>
+        <v>100.63</v>
       </c>
       <c r="H7">
-        <v>98.53</v>
+        <v>100.62</v>
       </c>
       <c r="I7">
-        <v>98.485</v>
+        <v>100.58</v>
       </c>
       <c r="J7">
-        <v>98.44</v>
+        <v>100.52</v>
       </c>
       <c r="K7">
-        <v>98.205</v>
+        <v>100.29</v>
       </c>
       <c r="L7">
-        <v>98.115</v>
+        <v>100.21</v>
       </c>
       <c r="M7">
-        <v>98.125</v>
+        <v>100.15</v>
       </c>
       <c r="N7">
-        <v>98.14</v>
+        <v>100.17</v>
       </c>
       <c r="O7">
-        <v>98.275</v>
+        <v>100.27</v>
       </c>
     </row>
     <row r="8" spans="1:15">

--- a/APM466_A1_data.xlsx
+++ b/APM466_A1_data.xlsx
@@ -888,34 +888,34 @@
         <v>38</v>
       </c>
       <c r="F9">
-        <v>96.17</v>
+        <v>96.66</v>
       </c>
       <c r="G9">
-        <v>96.815</v>
+        <v>96.72</v>
       </c>
       <c r="H9">
-        <v>96.28</v>
+        <v>96.77</v>
       </c>
       <c r="I9">
-        <v>96.74</v>
+        <v>96.77</v>
       </c>
       <c r="J9">
-        <v>96.675</v>
+        <v>96.68</v>
       </c>
       <c r="K9">
-        <v>95.93</v>
+        <v>96.43</v>
       </c>
       <c r="L9">
-        <v>96.435</v>
+        <v>96.26</v>
       </c>
       <c r="M9">
-        <v>96.135</v>
+        <v>96.15</v>
       </c>
       <c r="N9">
-        <v>96.26</v>
+        <v>96.19</v>
       </c>
       <c r="O9">
-        <v>96.32</v>
+        <v>96.31</v>
       </c>
     </row>
     <row r="10" spans="1:15">
